--- a/data/trans_bre/DC-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/DC-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.894082285053275</v>
+        <v>3.215863154243707</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.27581358805431</v>
+        <v>9.817379140927098</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.032647346668316</v>
+        <v>6.437120190382115</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17.71648040678302</v>
+        <v>17.35539352697348</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.09827168707587323</v>
+        <v>0.1074494828518797</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5262447170973187</v>
+        <v>0.4974390595806137</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3959014113141792</v>
+        <v>0.3668257008868755</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.4889696846631091</v>
+        <v>0.4834101216296748</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>10.34336486275414</v>
+        <v>10.85628291794822</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.24522749709681</v>
+        <v>17.24012903306751</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.68122569695808</v>
+        <v>14.73758115987905</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>26.78920494212329</v>
+        <v>26.51597766192855</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.3994882283363456</v>
+        <v>0.4244880316994376</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.139192376678546</v>
+        <v>1.096018485939364</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>1.059596110989977</v>
+        <v>1.084768233048549</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.9013503492246036</v>
+        <v>0.8841679288912353</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>8.248932945815996</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>14.4372039510636</v>
+        <v>14.43720395106359</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8509623037773855</v>
@@ -749,7 +749,7 @@
         <v>1.075732049072077</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.7221671137227995</v>
+        <v>0.722167113722799</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>8.428329215247153</v>
+        <v>8.328850282731405</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>9.414605339310658</v>
+        <v>9.361007020713256</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6.304996804041433</v>
+        <v>6.099804602421547</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>11.69376496054782</v>
+        <v>11.91206634302298</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5809367707209184</v>
+        <v>0.5719316572175854</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.038968711288357</v>
+        <v>1.040942228260445</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7514540801053021</v>
+        <v>0.7030085582846035</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5527182379759689</v>
+        <v>0.5479437930627163</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>13.99583442126641</v>
+        <v>13.72954366276443</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.89204050850295</v>
+        <v>14.14178971742576</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>10.46335354435772</v>
+        <v>10.29955758937315</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>17.07971023331805</v>
+        <v>17.1591387133274</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.192756746827003</v>
+        <v>1.161782012843261</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.986362596163461</v>
+        <v>2.070878851960442</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.521072483823058</v>
+        <v>1.498777261540535</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9101944553482014</v>
+        <v>0.9105628585402534</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>5.413802860339198</v>
+        <v>5.200324217638359</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>9.67458998818249</v>
+        <v>9.452346525197145</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7788824453717026</v>
+        <v>1.190649937946538</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>13.00476495504657</v>
+        <v>13.02745355585018</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3539705643002761</v>
+        <v>0.3382652823814637</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>1.416631250842529</v>
+        <v>1.3632037706686</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05991743473935231</v>
+        <v>0.1085049283805523</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.6960528120944135</v>
+        <v>0.7059459601878433</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>15.10992347365526</v>
+        <v>14.68619325284599</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>18.1573193674207</v>
+        <v>18.23758330064991</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>8.978254758732259</v>
+        <v>8.588166126817718</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>21.47090855883596</v>
+        <v>20.96957350323147</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.373091848434184</v>
+        <v>1.398296667129802</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>5.000704322853552</v>
+        <v>4.96799419601297</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.359818708223028</v>
+        <v>1.329159042041463</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.506268664873756</v>
+        <v>1.473369005394365</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>8.88245020312948</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>17.41419565028407</v>
+        <v>17.41419565028406</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5913206945602274</v>
@@ -949,7 +949,7 @@
         <v>0.9326185345423379</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.8140592102699922</v>
+        <v>0.8140592102699917</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>8.283651067204268</v>
+        <v>8.431571158255895</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>11.86204485531434</v>
+        <v>11.60035388810445</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.138709605180314</v>
+        <v>7.177760425556055</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>15.44894274694792</v>
+        <v>15.28106229429238</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4519317465834685</v>
+        <v>0.4546716916184907</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.067993005950399</v>
+        <v>1.052398105871799</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6982366543469447</v>
+        <v>0.678066357732561</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.6793471230195395</v>
+        <v>0.6758038037460538</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.35138051635385</v>
+        <v>12.35397188269451</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>15.47354049098052</v>
+        <v>15.38265850550836</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>10.6596877749621</v>
+        <v>10.62224952190765</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>19.6265842865131</v>
+        <v>19.33128579624879</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.7476800096992231</v>
+        <v>0.7526148752086742</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.627647385872335</v>
+        <v>1.610655362803694</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.209123586898776</v>
+        <v>1.21164941306708</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.9627905001462663</v>
+        <v>0.9479366139138216</v>
       </c>
     </row>
     <row r="16">
